--- a/data/trans_orig/IP25A01_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25A01_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EC4A452-996D-4F3B-BA76-6392B5BE0693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6387BA58-6F41-4352-930E-F042DE3770D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A81C8EC6-A2B1-4968-922E-3F1F733FDBFB}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DE8ABB9B-0C44-4813-9A21-F64847EA6E2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,265 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Menos de 1h</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>De 1 a 2h</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>De 2 a 3h</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>Más de 3h</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>De 1 a 2h</t>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
   </si>
   <si>
     <t>45,68%</t>
@@ -98,9 +353,6 @@
     <t>46,59%</t>
   </si>
   <si>
-    <t>De 2 a 3h</t>
-  </si>
-  <si>
     <t>13,43%</t>
   </si>
   <si>
@@ -113,9 +365,6 @@
     <t>16,2%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
     <t>21,49%</t>
   </si>
   <si>
@@ -128,39 +377,6 @@
     <t>18,17%</t>
   </si>
   <si>
-    <t>Menos de 1h</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>Más de 3h</t>
-  </si>
-  <si>
     <t>6,28%</t>
   </si>
   <si>
@@ -188,120 +404,144 @@
     <t>8,31%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
     <t>38,08%</t>
   </si>
   <si>
@@ -356,30 +596,6 @@
     <t>16,58%</t>
   </si>
   <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
     <t>6,62%</t>
   </si>
   <si>
@@ -401,220 +617,31 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
   </si>
   <si>
     <t>39,71%</t>
@@ -663,33 +690,6 @@
   </si>
   <si>
     <t>12,62%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
   </si>
   <si>
     <t>9,37%</t>
@@ -1108,7 +1108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D7FC7C-6ECE-4913-B700-2A56D37420A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E8692-D933-415E-9C0C-F3841E8B7195}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1226,10 +1226,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>113761</v>
+        <v>6785</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1241,10 +1241,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>72676</v>
+        <v>8909</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1256,10 +1256,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>251</v>
+        <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>186436</v>
+        <v>15695</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1277,10 +1277,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>33444</v>
+        <v>3972</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1292,10 +1292,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>30962</v>
+        <v>4899</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1307,10 +1307,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>64406</v>
+        <v>8871</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1328,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>86221</v>
+        <v>1941</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1343,10 +1343,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>78088</v>
+        <v>1501</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1358,10 +1358,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>164308</v>
+        <v>3442</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1379,10 +1379,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>15637</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1394,34 +1394,34 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>9449</v>
+        <v>643</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>643</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="7">
-        <v>31</v>
-      </c>
-      <c r="N7" s="7">
-        <v>25086</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1430,102 +1430,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>340</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>249062</v>
+        <v>12698</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="I8" s="7">
-        <v>191175</v>
+        <v>15952</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>617</v>
+        <v>46</v>
       </c>
       <c r="N8" s="7">
-        <v>440236</v>
+        <v>28650</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
+        <v>61</v>
+      </c>
+      <c r="D9" s="7">
+        <v>40370</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7">
+        <v>79</v>
+      </c>
+      <c r="I9" s="7">
+        <v>44408</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="7">
-        <v>37520</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="7">
-        <v>62</v>
-      </c>
-      <c r="I9" s="7">
-        <v>40034</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>140</v>
+      </c>
+      <c r="N9" s="7">
+        <v>84777</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="7">
-        <v>115</v>
-      </c>
-      <c r="N9" s="7">
-        <v>77553</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1534,49 +1534,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>17033</v>
+        <v>37520</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
         <v>62</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>40034</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="7">
-        <v>16</v>
-      </c>
-      <c r="I10" s="7">
-        <v>11948</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>115</v>
+      </c>
+      <c r="N10" s="7">
+        <v>77553</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="7">
-        <v>39</v>
-      </c>
-      <c r="N10" s="7">
-        <v>28981</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,49 +1585,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>40370</v>
+        <v>17033</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>16</v>
+      </c>
+      <c r="I11" s="7">
+        <v>11948</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="7">
-        <v>79</v>
-      </c>
-      <c r="I11" s="7">
-        <v>44408</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>39</v>
+      </c>
+      <c r="N11" s="7">
+        <v>28981</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="7">
-        <v>140</v>
-      </c>
-      <c r="N11" s="7">
-        <v>84777</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1642,13 +1642,13 @@
         <v>19673</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -1657,13 +1657,13 @@
         <v>5603</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -1672,13 +1672,13 @@
         <v>25276</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1693,13 +1693,13 @@
         <v>114596</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>165</v>
@@ -1708,13 +1708,13 @@
         <v>101993</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>317</v>
@@ -1723,66 +1723,66 @@
         <v>216588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="D14" s="7">
-        <v>66224</v>
+        <v>86221</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>119</v>
+      </c>
+      <c r="I14" s="7">
+        <v>78088</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="7">
-        <v>101</v>
-      </c>
-      <c r="I14" s="7">
-        <v>72662</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>255</v>
+      </c>
+      <c r="N14" s="7">
+        <v>164308</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="7">
-        <v>185</v>
-      </c>
-      <c r="N14" s="7">
-        <v>138886</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,49 +1791,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="D15" s="7">
-        <v>19063</v>
+        <v>113761</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>106</v>
+      </c>
+      <c r="I15" s="7">
+        <v>72676</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="7">
-        <v>33</v>
-      </c>
-      <c r="I15" s="7">
-        <v>25220</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>251</v>
+      </c>
+      <c r="N15" s="7">
+        <v>186436</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M15" s="7">
-        <v>59</v>
-      </c>
-      <c r="N15" s="7">
-        <v>44283</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1842,49 +1842,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
-        <v>77092</v>
+        <v>33444</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>39</v>
+      </c>
+      <c r="I16" s="7">
+        <v>30962</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="7">
-        <v>88</v>
-      </c>
-      <c r="I16" s="7">
-        <v>61539</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>80</v>
+      </c>
+      <c r="N16" s="7">
+        <v>64406</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16" s="7">
-        <v>201</v>
-      </c>
-      <c r="N16" s="7">
-        <v>138631</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,25 +1893,25 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>11512</v>
+        <v>15637</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>115</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>7351</v>
+        <v>9449</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>116</v>
@@ -1923,10 +1923,10 @@
         <v>118</v>
       </c>
       <c r="M17" s="7">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N17" s="7">
-        <v>18863</v>
+        <v>25086</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>119</v>
@@ -1935,7 +1935,7 @@
         <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,102 +1944,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>236</v>
+        <v>340</v>
       </c>
       <c r="D18" s="7">
-        <v>173891</v>
+        <v>249062</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="I18" s="7">
-        <v>166772</v>
+        <v>191175</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
-        <v>469</v>
+        <v>617</v>
       </c>
       <c r="N18" s="7">
-        <v>340663</v>
+        <v>440236</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="D19" s="7">
-        <v>3972</v>
+        <v>53789</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="I19" s="7">
-        <v>4899</v>
+        <v>47513</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="N19" s="7">
-        <v>8871</v>
+        <v>101301</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2048,49 +2048,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D20" s="7">
-        <v>1941</v>
+        <v>64107</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="I20" s="7">
-        <v>1501</v>
+        <v>63681</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="N20" s="7">
-        <v>3442</v>
+        <v>127788</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,49 +2099,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>6785</v>
+        <v>30544</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I21" s="7">
-        <v>8909</v>
+        <v>23505</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N21" s="7">
-        <v>15695</v>
+        <v>54049</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,49 +2150,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>20576</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I22" s="7">
-        <v>643</v>
+        <v>27801</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="N22" s="7">
-        <v>643</v>
+        <v>48377</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,102 +2201,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="D23" s="7">
-        <v>12698</v>
+        <v>169016</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="I23" s="7">
-        <v>15952</v>
+        <v>162500</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
-        <v>46</v>
+        <v>438</v>
       </c>
       <c r="N23" s="7">
-        <v>28650</v>
+        <v>331516</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D24" s="7">
-        <v>64107</v>
+        <v>77092</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>88</v>
       </c>
       <c r="I24" s="7">
-        <v>63681</v>
+        <v>61539</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="M24" s="7">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="N24" s="7">
-        <v>127788</v>
+        <v>138631</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,49 +2305,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D25" s="7">
-        <v>30544</v>
+        <v>66224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I25" s="7">
-        <v>23505</v>
+        <v>72662</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="N25" s="7">
-        <v>54049</v>
+        <v>138886</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,49 +2356,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D26" s="7">
-        <v>53789</v>
+        <v>19063</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="I26" s="7">
-        <v>47513</v>
+        <v>25220</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="N26" s="7">
-        <v>101301</v>
+        <v>44283</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,49 +2407,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D27" s="7">
-        <v>20576</v>
+        <v>11512</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I27" s="7">
-        <v>27801</v>
+        <v>7351</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N27" s="7">
-        <v>48377</v>
+        <v>18863</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,49 +2458,49 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D28" s="7">
-        <v>169016</v>
+        <v>173891</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="I28" s="7">
-        <v>162500</v>
+        <v>166772</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="N28" s="7">
-        <v>331516</v>
+        <v>340663</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,10 +2511,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="D29" s="7">
-        <v>285585</v>
+        <v>264257</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>193</v>
@@ -2526,10 +2526,10 @@
         <v>195</v>
       </c>
       <c r="H29" s="7">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="I29" s="7">
-        <v>253951</v>
+        <v>240456</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>196</v>
@@ -2541,10 +2541,10 @@
         <v>198</v>
       </c>
       <c r="M29" s="7">
-        <v>730</v>
+        <v>776</v>
       </c>
       <c r="N29" s="7">
-        <v>539535</v>
+        <v>504713</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>199</v>
@@ -2562,10 +2562,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>132</v>
+        <v>364</v>
       </c>
       <c r="D30" s="7">
-        <v>102024</v>
+        <v>285585</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>202</v>
@@ -2577,34 +2577,34 @@
         <v>204</v>
       </c>
       <c r="H30" s="7">
-        <v>121</v>
+        <v>366</v>
       </c>
       <c r="I30" s="7">
-        <v>93136</v>
+        <v>253951</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
-        <v>253</v>
+        <v>730</v>
       </c>
       <c r="N30" s="7">
-        <v>195160</v>
+        <v>539535</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,49 +2613,49 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>405</v>
+        <v>132</v>
       </c>
       <c r="D31" s="7">
-        <v>264257</v>
+        <v>102024</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
-        <v>371</v>
+        <v>121</v>
       </c>
       <c r="I31" s="7">
-        <v>240456</v>
+        <v>93136</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
-        <v>776</v>
+        <v>253</v>
       </c>
       <c r="N31" s="7">
-        <v>504713</v>
+        <v>195160</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2721,13 @@
         <v>719263</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>919</v>
@@ -2736,13 +2736,13 @@
         <v>638391</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>1887</v>
@@ -2751,13 +2751,13 @@
         <v>1357654</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP25A01_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25A01_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BB65F2F-3A28-4025-93EC-FA313E1529B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAA79A0B-80A5-434A-B95B-121C8C943239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41B61D1B-2CBF-43FD-8A46-4CA5182307A3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{63D869E6-D441-4FE5-8C31-662A4052E762}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="228">
   <si>
     <t>Menores según el número de horas al día que emplean en ver la televisión entre semana en 2023 (Tasa respuesta: 99,06%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Más de 3h</t>
@@ -92,28 +92,28 @@
     <t>18,09%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
   </si>
   <si>
     <t>21,17%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
   </si>
   <si>
     <t>De 1 a 2h</t>
@@ -122,28 +122,28 @@
     <t>36,47%</t>
   </si>
   <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
   </si>
   <si>
     <t>33,28%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
   </si>
   <si>
     <t>34,72%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
   </si>
   <si>
     <t>Menos de 1h</t>
@@ -152,142 +152,145 @@
     <t>45,45%</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
   </si>
   <si>
     <t>45,54%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
   </si>
   <si>
     <t>45,5%</t>
   </si>
   <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>4,32%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
   </si>
   <si>
     <t>42,7%</t>
   </si>
   <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
   </si>
   <si>
     <t>44,16%</t>
   </si>
   <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
   </si>
   <si>
     <t>43,39%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
   </si>
   <si>
     <t>46,7%</t>
   </si>
   <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
   </si>
   <si>
     <t>46,72%</t>
   </si>
   <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>2,77%</t>
@@ -296,16 +299,16 @@
     <t>1,25%</t>
   </si>
   <si>
-    <t>5,51%</t>
+    <t>5,44%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>3,11%</t>
@@ -314,91 +317,91 @@
     <t>1,95%</t>
   </si>
   <si>
-    <t>4,91%</t>
+    <t>5,08%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
   </si>
   <si>
     <t>48,4%</t>
   </si>
   <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
   </si>
   <si>
     <t>46,94%</t>
   </si>
   <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
   </si>
   <si>
     <t>47,76%</t>
   </si>
   <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
   </si>
   <si>
     <t>40,06%</t>
   </si>
   <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
   </si>
   <si>
     <t>42,14%</t>
   </si>
   <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
   </si>
   <si>
     <t>40,96%</t>
   </si>
   <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>1,06%</t>
@@ -407,241 +410,247 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>3,17%</t>
+    <t>3,28%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>12,21%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
   </si>
   <si>
     <t>43,94%</t>
   </si>
   <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
   </si>
   <si>
     <t>42,85%</t>
   </si>
   <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
   </si>
   <si>
     <t>43,4%</t>
   </si>
   <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
   </si>
   <si>
     <t>43,75%</t>
   </si>
   <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
   </si>
   <si>
     <t>46,82%</t>
   </si>
   <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
   </si>
   <si>
     <t>45,26%</t>
   </si>
   <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>2,59%</t>
+    <t>5,18%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
   </si>
   <si>
     <t>9,2%</t>
@@ -650,67 +659,64 @@
     <t>7,26%</t>
   </si>
   <si>
-    <t>11,5%</t>
+    <t>11,44%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
   </si>
   <si>
     <t>47,12%</t>
   </si>
   <si>
-    <t>50,56%</t>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
   </si>
   <si>
     <t>44,5%</t>
   </si>
   <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
   </si>
   <si>
     <t>45,89%</t>
   </si>
   <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
   </si>
   <si>
     <t>42,64%</t>
   </si>
   <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
   </si>
   <si>
     <t>41,74%</t>
   </si>
   <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1125,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3C5DA7-E489-4276-8135-C6DC104A5B80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525E6822-852B-440B-BB28-EB52D8537E3A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1524,10 +1530,10 @@
         <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -1536,13 +1542,13 @@
         <v>5410</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,13 +1563,13 @@
         <v>8455</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -1572,13 +1578,13 @@
         <v>7700</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -1587,13 +1593,13 @@
         <v>16155</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,13 +1614,13 @@
         <v>48930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -1623,13 +1629,13 @@
         <v>45689</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>138</v>
@@ -1638,13 +1644,13 @@
         <v>94619</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1665,13 @@
         <v>53554</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>80</v>
@@ -1674,13 +1680,13 @@
         <v>48315</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>149</v>
@@ -1689,13 +1695,13 @@
         <v>101870</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,7 +1757,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1763,13 +1769,13 @@
         <v>6907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -1778,13 +1784,13 @@
         <v>6792</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -1793,13 +1799,13 @@
         <v>13700</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,13 +1820,13 @@
         <v>21842</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>19</v>
@@ -1829,13 +1835,13 @@
         <v>14075</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>47</v>
@@ -1844,13 +1850,13 @@
         <v>35917</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,13 +1871,13 @@
         <v>120541</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>122</v>
@@ -1880,13 +1886,13 @@
         <v>89633</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>283</v>
@@ -1895,13 +1901,13 @@
         <v>210174</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1922,13 @@
         <v>99771</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>125</v>
@@ -1931,13 +1937,13 @@
         <v>80465</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>268</v>
@@ -1946,13 +1952,13 @@
         <v>180237</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,7 +2014,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2020,13 +2026,13 @@
         <v>1844</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -2035,10 +2041,10 @@
         <v>10972</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>126</v>
@@ -2137,13 +2143,13 @@
         <v>73361</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -2152,13 +2158,13 @@
         <v>163771</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2179,13 @@
         <v>61083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>78</v>
@@ -2188,13 +2194,13 @@
         <v>59274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>156</v>
@@ -2203,13 +2209,13 @@
         <v>120357</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,7 +2271,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2277,13 +2283,13 @@
         <v>4344</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2292,13 +2298,13 @@
         <v>4065</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -2307,13 +2313,13 @@
         <v>8409</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,13 +2334,13 @@
         <v>17142</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -2343,13 +2349,13 @@
         <v>13427</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -2358,13 +2364,13 @@
         <v>30570</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2385,13 @@
         <v>76648</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -2394,13 +2400,13 @@
         <v>72598</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>202</v>
@@ -2409,13 +2415,13 @@
         <v>149246</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2436,13 @@
         <v>76322</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>111</v>
@@ -2445,13 +2451,13 @@
         <v>79322</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>218</v>
@@ -2460,13 +2466,13 @@
         <v>155643</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2540,13 @@
         <v>16753</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>33</v>
@@ -2549,13 +2555,13 @@
         <v>23582</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>54</v>
@@ -2564,13 +2570,13 @@
         <v>40335</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2591,13 @@
         <v>69608</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>85</v>
@@ -2600,13 +2606,13 @@
         <v>59197</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>180</v>
@@ -2615,13 +2621,13 @@
         <v>128805</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2642,13 @@
         <v>341159</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>406</v>
@@ -2651,13 +2657,13 @@
         <v>286421</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>858</v>
@@ -2666,13 +2672,13 @@
         <v>627579</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2693,13 @@
         <v>296501</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>405</v>
@@ -2702,13 +2708,13 @@
         <v>274408</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>810</v>
@@ -2717,13 +2723,13 @@
         <v>570909</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,7 +2785,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP25A01_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25A01_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAA79A0B-80A5-434A-B95B-121C8C943239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3D842AD-019E-43AB-9A6F-15366F2AD272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{63D869E6-D441-4FE5-8C31-662A4052E762}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D2B561BB-F6F7-46C9-A070-5B34E77912AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="197">
   <si>
     <t>Menores según el número de horas al día que emplean en ver la televisión entre semana en 2023 (Tasa respuesta: 99,06%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,658 +65,565 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Más de 3h</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>De 1 a 2h</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>Menos de 1h</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
   </si>
   <si>
     <t>8,38%</t>
   </si>
   <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
     <t>43,3%</t>
   </si>
   <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>De 1 a 2h</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>Menos de 1h</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
   </si>
   <si>
     <t>38,14%</t>
   </si>
   <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
+    <t>45,92%</t>
   </si>
   <si>
     <t>42,64%</t>
   </si>
   <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1131,8 +1038,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525E6822-852B-440B-BB28-EB52D8537E3A}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5635E3D-5FF1-4A3F-87FB-5AAB992876A1}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1249,10 +1156,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1759</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1264,187 +1171,187 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>4066</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>5825</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>2297</v>
+        <v>11084</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>3269</v>
+        <v>11203</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="N5" s="7">
-        <v>5566</v>
+        <v>22287</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D6" s="7">
-        <v>4631</v>
+        <v>48805</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="I6" s="7">
-        <v>5139</v>
+        <v>56127</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="N6" s="7">
-        <v>9770</v>
+        <v>104932</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7">
-        <v>5771</v>
+        <v>53848</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="I7" s="7">
-        <v>7032</v>
+        <v>69017</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="N7" s="7">
-        <v>12803</v>
+        <v>122864</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,255 +1360,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="D8" s="7">
-        <v>12698</v>
+        <v>115496</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="I8" s="7">
-        <v>15440</v>
+        <v>140412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="N8" s="7">
-        <v>28138</v>
+        <v>255908</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7">
-        <v>3657</v>
+        <v>6814</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I9" s="7">
-        <v>1753</v>
+        <v>7143</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N9" s="7">
-        <v>5410</v>
+        <v>13957</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>8455</v>
+        <v>14405</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>7700</v>
+        <v>23181</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="N10" s="7">
-        <v>16155</v>
+        <v>37586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="D11" s="7">
-        <v>48930</v>
+        <v>89799</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="I11" s="7">
-        <v>45689</v>
+        <v>120263</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>138</v>
+        <v>283</v>
       </c>
       <c r="N11" s="7">
-        <v>94619</v>
+        <v>210062</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="D12" s="7">
-        <v>53554</v>
+        <v>78114</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="I12" s="7">
-        <v>48315</v>
+        <v>103309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="N12" s="7">
-        <v>101870</v>
+        <v>181423</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,255 +1617,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="D13" s="7">
-        <v>114596</v>
+        <v>189132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>167</v>
+        <v>340</v>
       </c>
       <c r="I13" s="7">
-        <v>103457</v>
+        <v>253896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>319</v>
+        <v>617</v>
       </c>
       <c r="N13" s="7">
-        <v>218053</v>
+        <v>443028</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
-        <v>6907</v>
+        <v>11646</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>6792</v>
+        <v>1877</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N14" s="7">
-        <v>13700</v>
+        <v>13523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7">
-        <v>21842</v>
+        <v>21795</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I15" s="7">
-        <v>14075</v>
+        <v>21002</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N15" s="7">
-        <v>35917</v>
+        <v>42798</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="D16" s="7">
-        <v>120541</v>
+        <v>75461</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I16" s="7">
-        <v>89633</v>
+        <v>96530</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="N16" s="7">
-        <v>210174</v>
+        <v>171991</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7">
-        <v>99771</v>
+        <v>77088</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="I17" s="7">
-        <v>80465</v>
+        <v>65877</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
-        <v>268</v>
+        <v>156</v>
       </c>
       <c r="N17" s="7">
-        <v>180237</v>
+        <v>142965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,255 +1874,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>340</v>
+        <v>222</v>
       </c>
       <c r="D18" s="7">
-        <v>249062</v>
+        <v>185991</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="I18" s="7">
-        <v>190966</v>
+        <v>185286</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>617</v>
+        <v>447</v>
       </c>
       <c r="N18" s="7">
-        <v>440028</v>
+        <v>371277</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>1844</v>
+        <v>4040</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>10972</v>
+        <v>4429</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N19" s="7">
-        <v>12816</v>
+        <v>8469</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D20" s="7">
-        <v>19872</v>
+        <v>13469</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I20" s="7">
-        <v>20726</v>
+        <v>17659</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="N20" s="7">
-        <v>40598</v>
+        <v>31128</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D21" s="7">
-        <v>90409</v>
+        <v>70058</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I21" s="7">
-        <v>73361</v>
+        <v>79748</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="N21" s="7">
-        <v>163771</v>
+        <v>149806</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D22" s="7">
-        <v>61083</v>
+        <v>77919</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="I22" s="7">
-        <v>59274</v>
+        <v>78825</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="N22" s="7">
-        <v>120357</v>
+        <v>156744</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,255 +2131,255 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D23" s="7">
-        <v>173208</v>
+        <v>165486</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="I23" s="7">
-        <v>164333</v>
+        <v>180661</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="N23" s="7">
-        <v>337542</v>
+        <v>346147</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D24" s="7">
-        <v>4344</v>
+        <v>24259</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I24" s="7">
-        <v>4065</v>
+        <v>17515</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="N24" s="7">
-        <v>8409</v>
+        <v>41773</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D25" s="7">
-        <v>17142</v>
+        <v>60753</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I25" s="7">
-        <v>13427</v>
+        <v>73045</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="N25" s="7">
-        <v>30570</v>
+        <v>133798</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>102</v>
+        <v>406</v>
       </c>
       <c r="D26" s="7">
-        <v>76648</v>
+        <v>284123</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
-        <v>100</v>
+        <v>452</v>
       </c>
       <c r="I26" s="7">
-        <v>72598</v>
+        <v>352667</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
-        <v>202</v>
+        <v>858</v>
       </c>
       <c r="N26" s="7">
-        <v>149246</v>
+        <v>636791</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>107</v>
+        <v>405</v>
       </c>
       <c r="D27" s="7">
-        <v>76322</v>
+        <v>286968</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
-        <v>111</v>
+        <v>405</v>
       </c>
       <c r="I27" s="7">
-        <v>79322</v>
+        <v>317028</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
-        <v>218</v>
+        <v>810</v>
       </c>
       <c r="N27" s="7">
-        <v>155643</v>
+        <v>603997</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,319 +2388,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>237</v>
+        <v>929</v>
       </c>
       <c r="D28" s="7">
-        <v>174456</v>
+        <v>656104</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>237</v>
+        <v>973</v>
       </c>
       <c r="I28" s="7">
-        <v>169412</v>
+        <v>760255</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>474</v>
+        <v>1902</v>
       </c>
       <c r="N28" s="7">
-        <v>343868</v>
+        <v>1416359</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>21</v>
-      </c>
-      <c r="D29" s="7">
-        <v>16753</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="A29" t="s">
         <v>196</v>
       </c>
-      <c r="H29" s="7">
-        <v>33</v>
-      </c>
-      <c r="I29" s="7">
-        <v>23582</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M29" s="7">
-        <v>54</v>
-      </c>
-      <c r="N29" s="7">
-        <v>40335</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>95</v>
-      </c>
-      <c r="D30" s="7">
-        <v>69608</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H30" s="7">
-        <v>85</v>
-      </c>
-      <c r="I30" s="7">
-        <v>59197</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M30" s="7">
-        <v>180</v>
-      </c>
-      <c r="N30" s="7">
-        <v>128805</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="7">
-        <v>452</v>
-      </c>
-      <c r="D31" s="7">
-        <v>341159</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H31" s="7">
-        <v>406</v>
-      </c>
-      <c r="I31" s="7">
-        <v>286421</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M31" s="7">
-        <v>858</v>
-      </c>
-      <c r="N31" s="7">
-        <v>627579</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="7">
-        <v>405</v>
-      </c>
-      <c r="D32" s="7">
-        <v>296501</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H32" s="7">
-        <v>405</v>
-      </c>
-      <c r="I32" s="7">
-        <v>274408</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M32" s="7">
-        <v>810</v>
-      </c>
-      <c r="N32" s="7">
-        <v>570909</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>973</v>
-      </c>
-      <c r="D33" s="7">
-        <v>724020</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="7">
-        <v>929</v>
-      </c>
-      <c r="I33" s="7">
-        <v>643608</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M33" s="7">
-        <v>1902</v>
-      </c>
-      <c r="N33" s="7">
-        <v>1367628</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>227</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
